--- a/Assets/Other/_装备.xlsx
+++ b/Assets/Other/_装备.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="78">
   <si>
     <t xml:space="preserve">等级 </t>
   </si>
@@ -35,6 +35,15 @@
     <t>躯壳部件受损会掉耐久，每掉一定耐久会导致词条或槽位失效，需要进行修复</t>
   </si>
   <si>
+    <t>躯壳和灵魂决定了最大生命值，当腐败、消散，最大生命值会按百分比降低</t>
+  </si>
+  <si>
+    <t>使用 骨血补给 等道具来降低腐败值</t>
+  </si>
+  <si>
+    <t>使用 魂晶 等来降低消散值</t>
+  </si>
+  <si>
     <t>核心</t>
   </si>
   <si>
@@ -113,6 +122,9 @@
     <t>脏器</t>
   </si>
   <si>
+    <t>骨髓</t>
+  </si>
+  <si>
     <t>发生器</t>
   </si>
   <si>
@@ -174,6 +186,12 @@
   </si>
   <si>
     <t>木系物品：会进行成长，每个房间长进度条，如桃木剑，成长开花</t>
+  </si>
+  <si>
+    <t>长命锁</t>
+  </si>
+  <si>
+    <t>复活一次，或装备</t>
   </si>
   <si>
     <t>xx族头骨</t>
@@ -241,10 +259,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -276,15 +294,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -299,18 +350,40 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -322,68 +395,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -393,7 +404,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -408,37 +426,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,145 +600,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -617,6 +635,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -628,24 +666,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -668,18 +688,7 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -699,6 +708,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -707,10 +725,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -719,10 +737,10 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -731,121 +749,121 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1201,10 +1219,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C44" sqref="A44:C44"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1238,26 +1256,26 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:2">
-      <c r="B9" t="s">
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:2">
-      <c r="B10" t="s">
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="2:2">
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1271,168 +1289,196 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="3:3">
-      <c r="C14" t="s">
+    <row r="14" spans="2:2">
+      <c r="B14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="3:3">
-      <c r="C15" t="s">
+    <row r="15" spans="2:2">
+      <c r="B15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
+    <row r="16" spans="2:2">
+      <c r="B16" t="s">
         <v>14</v>
       </c>
-      <c r="C16" t="s">
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3">
-      <c r="B17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="2:9">
+    <row r="20" spans="2:3">
       <c r="B20" t="s">
         <v>19</v>
       </c>
       <c r="C20" t="s">
         <v>20</v>
       </c>
-      <c r="E20" t="s">
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" t="s">
         <v>21</v>
       </c>
-      <c r="H20" t="s">
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23" t="s">
         <v>22</v>
       </c>
-      <c r="I20" t="s">
+      <c r="C23" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="21" spans="2:8">
-      <c r="B21" t="s">
+      <c r="E23" t="s">
         <v>24</v>
       </c>
-      <c r="E21" t="s">
+      <c r="H23" t="s">
         <v>25</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I23" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="2:8">
-      <c r="B22" t="s">
+    <row r="24" spans="2:8">
+      <c r="B24" t="s">
         <v>27</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E24" t="s">
         <v>28</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H24" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="2:5">
-      <c r="B23" t="s">
+    <row r="25" spans="2:8">
+      <c r="B25" t="s">
         <v>30</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E25" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="24" spans="2:9">
-      <c r="B24" t="s">
+      <c r="H25" t="s">
         <v>32</v>
       </c>
-      <c r="H24" t="s">
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" t="s">
         <v>33</v>
       </c>
-      <c r="I24" t="s">
+      <c r="C26" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
+      <c r="E26" t="s">
         <v>35</v>
       </c>
-      <c r="B26" t="s">
+    </row>
+    <row r="27" spans="2:9">
+      <c r="B27" t="s">
         <v>36</v>
       </c>
-      <c r="D26" t="s">
+      <c r="H27" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="27" spans="2:4">
-      <c r="B27" t="s">
+      <c r="I27" t="s">
         <v>38</v>
       </c>
-      <c r="D27" t="s">
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="28" spans="2:4">
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>40</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D29" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="2:4">
-      <c r="B29" t="s">
+    <row r="30" spans="2:4">
+      <c r="B30" t="s">
         <v>42</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D30" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="2:2">
-      <c r="B30" t="s">
+    <row r="31" spans="2:4">
+      <c r="B31" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" t="s">
+      <c r="D31" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
+    <row r="32" spans="2:4">
+      <c r="B32" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
+      <c r="D32" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
-      <c r="A38" t="s">
+    <row r="33" spans="2:2">
+      <c r="B33" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
-      <c r="A40" t="s">
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
-      <c r="A42" t="s">
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>51</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1458,43 +1504,43 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1520,34 +1566,34 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1570,7 +1616,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1592,13 +1638,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Other/_装备.xlsx
+++ b/Assets/Other/_装备.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="头盔" sheetId="3" r:id="rId3"/>
     <sheet name="感官" sheetId="4" r:id="rId4"/>
     <sheet name="肢体" sheetId="5" r:id="rId5"/>
+    <sheet name="魂魄" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="110">
   <si>
     <t xml:space="preserve">等级 </t>
   </si>
@@ -252,6 +253,102 @@
   </si>
   <si>
     <t>上古时期研究畜牧的牧牛人，跟随维的脚步，可以找到奶牛</t>
+  </si>
+  <si>
+    <t>天魂</t>
+  </si>
+  <si>
+    <t>胎光</t>
+  </si>
+  <si>
+    <t>死后归于天</t>
+  </si>
+  <si>
+    <t>生命源泉</t>
+  </si>
+  <si>
+    <t>最后出现</t>
+  </si>
+  <si>
+    <t>地魂</t>
+  </si>
+  <si>
+    <t>爽灵</t>
+  </si>
+  <si>
+    <t>死后归于地府</t>
+  </si>
+  <si>
+    <t>肢体活动</t>
+  </si>
+  <si>
+    <t>思考记忆</t>
+  </si>
+  <si>
+    <t>第二出现</t>
+  </si>
+  <si>
+    <t>命魂</t>
+  </si>
+  <si>
+    <t>幽精</t>
+  </si>
+  <si>
+    <t>死后徘徊墓地</t>
+  </si>
+  <si>
+    <t>脏器活动</t>
+  </si>
+  <si>
+    <t>智慧情感</t>
+  </si>
+  <si>
+    <t>最先出现</t>
+  </si>
+  <si>
+    <t>七魄，指伏矢，尸狗，臭肺，非毒，吞贼，雀阴，除秽。</t>
+  </si>
+  <si>
+    <t>吞贼</t>
+  </si>
+  <si>
+    <t>进食，免疫</t>
+  </si>
+  <si>
+    <t>尸狗</t>
+  </si>
+  <si>
+    <t>感觉灵敏</t>
+  </si>
+  <si>
+    <t>除秽</t>
+  </si>
+  <si>
+    <t>辟邪</t>
+  </si>
+  <si>
+    <t>臭肺</t>
+  </si>
+  <si>
+    <t>吐纳呼吸</t>
+  </si>
+  <si>
+    <t>雀阴</t>
+  </si>
+  <si>
+    <t>生殖</t>
+  </si>
+  <si>
+    <t>非毒</t>
+  </si>
+  <si>
+    <t>驱毒，消化代谢</t>
+  </si>
+  <si>
+    <t>伏矢</t>
+  </si>
+  <si>
+    <t>精气</t>
   </si>
 </sst>
 </file>
@@ -259,10 +356,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -273,6 +370,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -280,6 +423,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -287,8 +431,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -302,45 +485,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -349,11 +493,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -363,59 +513,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -426,31 +523,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,55 +667,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,85 +697,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -617,56 +714,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -689,7 +736,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -711,6 +758,56 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -725,10 +822,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -737,133 +834,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1221,7 +1318,7 @@
   <sheetPr/>
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
@@ -1651,4 +1748,145 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <cols>
+    <col min="4" max="4" width="14.1111111111111" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7">
+      <c r="B1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7">
+      <c r="B2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="B13" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="B14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="B15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>